--- a/DesignerConfigs/Datas/Audio.xlsx
+++ b/DesignerConfigs/Datas/Audio.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -72,6 +72,36 @@
   </si>
   <si>
     <t>Audio/button.wav</t>
+  </si>
+  <si>
+    <t>解除特效</t>
+  </si>
+  <si>
+    <t>Audio/removeEffect.wav</t>
+  </si>
+  <si>
+    <t>XXX移动</t>
+  </si>
+  <si>
+    <t>Audio/CantMove.wav</t>
+  </si>
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
+    <t>Audio/Select.wav</t>
+  </si>
+  <si>
+    <t>解除选择</t>
+  </si>
+  <si>
+    <t>Audio/DeSelect.wav</t>
+  </si>
+  <si>
+    <t>消除</t>
+  </si>
+  <si>
+    <t>Audio/linkRemove.wav</t>
   </si>
 </sst>
 </file>
@@ -1042,13 +1072,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="32.875" customWidth="1"/>
     <col min="4" max="4" width="31.875" customWidth="1"/>
@@ -1146,6 +1176,61 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/Audio.xlsx
+++ b/DesignerConfigs/Datas/Audio.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -83,25 +83,31 @@
     <t>XXX移动</t>
   </si>
   <si>
-    <t>Audio/CantMove.wav</t>
+    <t>Audio/cantMove.wav</t>
   </si>
   <si>
     <t>选择</t>
   </si>
   <si>
-    <t>Audio/Select.wav</t>
+    <t>Audio/select.wav</t>
   </si>
   <si>
     <t>解除选择</t>
   </si>
   <si>
-    <t>Audio/DeSelect.wav</t>
+    <t>Audio/deSelect.wav</t>
   </si>
   <si>
     <t>消除</t>
   </si>
   <si>
     <t>Audio/linkRemove.wav</t>
+  </si>
+  <si>
+    <t>刷新</t>
+  </si>
+  <si>
+    <t>Audio/goodshuffle.wav</t>
   </si>
 </sst>
 </file>
@@ -1072,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1231,6 +1237,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/Audio.xlsx
+++ b/DesignerConfigs/Datas/Audio.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Audio/goodshuffle.wav</t>
+  </si>
+  <si>
+    <t>物品移动音效</t>
+  </si>
+  <si>
+    <t>Audio/goodMove.wav</t>
   </si>
 </sst>
 </file>
@@ -1078,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1248,6 +1254,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/Audio.xlsx
+++ b/DesignerConfigs/Datas/Audio.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -114,6 +114,30 @@
   </si>
   <si>
     <t>Audio/goodMove.wav</t>
+  </si>
+  <si>
+    <t>老虎机移动</t>
+  </si>
+  <si>
+    <t>Audio/luckmount.wav</t>
+  </si>
+  <si>
+    <t>钱币获取</t>
+  </si>
+  <si>
+    <t>Audio/money.wav</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>Audio/reward.wav</t>
+  </si>
+  <si>
+    <t>胜利</t>
+  </si>
+  <si>
+    <t>Audio/win.wav</t>
   </si>
 </sst>
 </file>
@@ -825,13 +849,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1084,10 +1101,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1265,6 +1282,50 @@
         <v>28</v>
       </c>
     </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
